--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c208_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c208_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -796,10 +808,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -843,28 +855,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="A25" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="2">
+      <c r="C25" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D25" t="s" s="2">
+      <c r="D25" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -889,28 +901,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="2">
+      <c r="C27" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="2">
+      <c r="D27" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="2">
+      <c r="I27" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1491,10 +1503,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="J47" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="K47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1538,28 +1550,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="A49" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1584,28 +1596,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="2">
+      <c r="I51" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2041,10 +2053,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="J66" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K66" s="2" t="s">
+      <c r="K66" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2088,28 +2100,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="2">
+      <c r="A68" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2134,28 +2146,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="2">
+      <c r="C70" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="2">
+      <c r="D70" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="2">
+      <c r="I70" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2504,10 +2516,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="2" t="s">
+      <c r="J82" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K82" s="2" t="s">
+      <c r="K82" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2551,28 +2563,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="2">
+      <c r="A84" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="2">
+      <c r="C84" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D84" t="s" s="2">
+      <c r="D84" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2597,28 +2609,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="2">
+      <c r="I86" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3199,10 +3211,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
+      <c r="J106" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K106" s="2" t="s">
+      <c r="K106" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3246,28 +3258,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3292,28 +3304,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3575,10 +3587,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="2" t="s">
+      <c r="J119" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K119" s="2" t="s">
+      <c r="K119" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3622,28 +3634,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="2">
+      <c r="A121" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="2">
+      <c r="C121" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D121" t="s" s="2">
+      <c r="D121" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3668,28 +3680,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="2">
+      <c r="C123" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="2">
+      <c r="D123" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="2">
+      <c r="I123" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4009,10 +4021,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="2" t="s">
+      <c r="J134" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K134" s="2" t="s">
+      <c r="K134" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4056,28 +4068,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="2">
+      <c r="A136" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="2">
+      <c r="C136" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D136" t="s" s="2">
+      <c r="D136" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4102,28 +4114,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="C138" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="2">
+      <c r="D138" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="2">
+      <c r="I138" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4211,10 +4223,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="2" t="s">
+      <c r="J141" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K141" s="2" t="s">
+      <c r="K141" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
